--- a/example_report.xlsx
+++ b/example_report.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="18760" windowHeight="14100"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Широта</t>
   </si>
@@ -46,10 +49,10 @@
     <t>Макрорельеф</t>
   </si>
   <si>
+    <t>19/07/2022</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>19/07/2022</t>
   </si>
   <si>
     <t>BioGeoHab</t>
@@ -178,25 +181,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,24 +550,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -543,16 +1176,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:P20"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,27 +1225,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>74.57365</v>
+      </c>
+      <c r="B2" s="1">
+        <v>55.109332</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -616,13 +1254,13 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -672,7 +1310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -683,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -694,7 +1332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -720,7 +1358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -740,7 +1378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -760,7 +1398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -780,7 +1418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -800,7 +1438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -820,7 +1458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -840,7 +1478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -863,7 +1501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -892,7 +1530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -915,7 +1553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -938,7 +1576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -958,7 +1596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -978,7 +1616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -993,7 +1631,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/example_report.xlsx
+++ b/example_report.xlsx
@@ -183,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,9 +198,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +208,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,11 +235,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,6 +279,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -258,6 +302,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -266,35 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,44 +335,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -357,49 +350,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,133 +512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,21 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,6 +569,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -607,11 +600,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,9 +624,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,162 +636,162 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/example_report.xlsx
+++ b/example_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18760" windowHeight="14100"/>
+    <workbookView windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Широта</t>
   </si>
@@ -91,24 +91,6 @@
     <t>Caridea</t>
   </si>
   <si>
-    <t>Gorgonocephalus</t>
-  </si>
-  <si>
-    <t>Crossaster</t>
-  </si>
-  <si>
-    <t>Anthozoa</t>
-  </si>
-  <si>
-    <t>Ascidia</t>
-  </si>
-  <si>
-    <t>Ascophyllum</t>
-  </si>
-  <si>
-    <t>Buccinum</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -173,9 +155,6 @@
   </si>
   <si>
     <t>160</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
@@ -183,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -206,6 +185,98 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,126 +291,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,19 +335,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,157 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,35 +585,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,142 +623,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,13 +1154,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="K4" sqref="K4:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="10.5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1223,7 +1205,7 @@
         <v>74.57365</v>
       </c>
       <c r="B2" s="1">
-        <v>55.109332</v>
+        <v>56.109332</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1253,7 +1235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1284,343 +1266,238 @@
       <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="K9" t="s">
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
